--- a/basic/ch08_테이블/table.xlsx
+++ b/basic/ch08_테이블/table.xlsx
@@ -26,7 +26,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -45,6 +45,12 @@
         <bgColor rgb="00ff3456"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="darkTrellis">
+        <fgColor rgb="00ffaabb"/>
+        <bgColor rgb="00123456"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -58,8 +64,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
@@ -469,58 +476,60 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>테스터</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="n">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>New1</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="C2" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t>강원</t>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>New2</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>New3</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>New1</t>
+          <t>홍길동</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>24</v>
       </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t>New2</t>
-        </is>
+      <c r="C3" s="1" t="n">
+        <v>20</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>New3</t>
+          <t>서울</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>홍길동</t>
+          <t>New4</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>55</v>
       </c>
-      <c r="C4" s="1" t="n">
-        <v>20</v>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>New5</t>
+        </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>New6</t>
         </is>
       </c>
     </row>
@@ -561,18 +570,18 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>이영희</t>
         </is>
       </c>
-      <c r="B7" s="2" t="n">
+      <c r="B7" s="3" t="n">
         <v>65</v>
       </c>
       <c r="C7" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="D7" s="3" t="inlineStr">
         <is>
           <t>대구</t>
         </is>
